--- a/Data/Consumption/Consumption_matrix.xlsx
+++ b/Data/Consumption/Consumption_matrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/EconomicCycle/Data/Consumption/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85B2A03-DBCE-474B-893B-E61D7DAE1B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34219AF-7F48-894A-9748-476863A88371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{745D22DE-DA0D-A04C-AAEB-86F55E8C2179}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
   <si>
     <t>index</t>
   </si>
@@ -933,6 +933,9 @@
   </si>
   <si>
     <t>non_durb_goods_sales</t>
+  </si>
+  <si>
+    <t>2023-10</t>
   </si>
 </sst>
 </file>
@@ -962,7 +965,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -985,16 +988,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1313,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1596A198-DD6F-D64E-91D9-55E94DE71269}">
   <dimension ref="A1:N287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B69" workbookViewId="0">
-      <selection activeCell="G60" sqref="F60:G90"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13562,7 +13579,10 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A287" s="3" t="s">
+        <v>299</v>
+      </c>
       <c r="C287">
         <v>3.8</v>
       </c>

--- a/Data/Consumption/Consumption_matrix.xlsx
+++ b/Data/Consumption/Consumption_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/EconomicCycle/Data/Consumption/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34219AF-7F48-894A-9748-476863A88371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED16405-78DD-BC4D-B5BD-4BE64B4DA361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{745D22DE-DA0D-A04C-AAEB-86F55E8C2179}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
   <si>
     <t>index</t>
   </si>
@@ -936,6 +936,9 @@
   </si>
   <si>
     <t>2023-10</t>
+  </si>
+  <si>
+    <t>gdp_lag1</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1328,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1596A198-DD6F-D64E-91D9-55E94DE71269}">
-  <dimension ref="A1:N287"/>
+  <dimension ref="A1:O287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1340,7 +1343,7 @@
     <col min="2" max="14" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1383,8 +1386,11 @@
       <c r="N1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1419,7 +1425,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1454,7 +1460,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1489,7 +1495,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1524,7 +1530,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1559,7 +1565,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1594,7 +1600,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1629,7 +1635,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1664,7 +1670,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1699,7 +1705,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1734,7 +1740,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1769,7 +1775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1804,7 +1810,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1838,8 +1844,11 @@
       <c r="N14">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1873,8 +1882,11 @@
       <c r="N15">
         <v>-2.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <v>-3.742177640210119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1908,8 +1920,11 @@
       <c r="N16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <v>0.7747191724922835</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1943,8 +1958,11 @@
       <c r="N17">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <v>0.85524205350805804</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1978,8 +1996,11 @@
       <c r="N18">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <v>0.93146611742991814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2013,8 +2034,11 @@
       <c r="N19">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <v>1.6640808998415411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2048,8 +2072,11 @@
       <c r="N20">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <v>-0.3070209709597691</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2083,8 +2110,11 @@
       <c r="N21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <v>-1.7664807149175219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2121,8 +2151,11 @@
       <c r="N22">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <v>4.394396425601351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2159,8 +2192,11 @@
       <c r="N23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O23">
+        <v>-2.3910101583473731</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2197,8 +2233,11 @@
       <c r="N24">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <v>2.568626768933755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2235,8 +2274,11 @@
       <c r="N25">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O25">
+        <v>0.41346480088943061</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2273,8 +2315,11 @@
       <c r="N26">
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O26">
+        <v>5.1357393414414947</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2311,8 +2356,11 @@
       <c r="N27">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O27">
+        <v>-5.1167597449852718</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2349,8 +2397,11 @@
       <c r="N28">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <v>-1.069254905066559</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2387,8 +2438,11 @@
       <c r="N29">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O29">
+        <v>2.7583193463919118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2425,8 +2479,11 @@
       <c r="N30">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <v>2.128416150455946</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2463,8 +2520,11 @@
       <c r="N31">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O31">
+        <v>0.1234792150307609</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2501,8 +2561,11 @@
       <c r="N32">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <v>1.1056396956868171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -2539,8 +2602,11 @@
       <c r="N33">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <v>0.54188691446777781</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -2577,8 +2643,11 @@
       <c r="N34">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <v>-0.77606749651347329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -2615,8 +2684,11 @@
       <c r="N35">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <v>1.210265446299571</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -2653,8 +2725,11 @@
       <c r="N36">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <v>0.21990487455799371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -2691,8 +2766,11 @@
       <c r="N37">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O37">
+        <v>0.23964199054446669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -2732,8 +2810,11 @@
       <c r="N38">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O38">
+        <v>-0.85084315090836071</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -2773,8 +2854,11 @@
       <c r="N39">
         <v>-7.1</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O39">
+        <v>2.2819378773764502E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -2814,8 +2898,11 @@
       <c r="N40">
         <v>-3.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O40">
+        <v>-0.29229816046937002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -2855,8 +2942,11 @@
       <c r="N41">
         <v>-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O41">
+        <v>-0.2136993210082121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -2896,8 +2986,11 @@
       <c r="N42">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O42">
+        <v>-0.1894945275029265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -2937,8 +3030,11 @@
       <c r="N43">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O43">
+        <v>0.98186396019546862</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3074,11 @@
       <c r="N44">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O44">
+        <v>0.57224590187750835</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -3019,8 +3118,11 @@
       <c r="N45">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O45">
+        <v>0.57725102950083595</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -3060,8 +3162,11 @@
       <c r="N46">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O46">
+        <v>1.054526842477792</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -3101,8 +3206,11 @@
       <c r="N47">
         <v>-0.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O47">
+        <v>1.080710906389402</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -3142,8 +3250,11 @@
       <c r="N48">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O48">
+        <v>0.52601098693473602</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -3183,8 +3294,11 @@
       <c r="N49">
         <v>-0.9</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O49">
+        <v>0.81954059250590561</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="N50">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O50">
+        <v>-0.16695925547134391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -3265,8 +3382,11 @@
       <c r="N51">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O51">
+        <v>0.96793585457239573</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -3306,8 +3426,11 @@
       <c r="N52">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O52">
+        <v>0.29991388532269531</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -3347,8 +3470,11 @@
       <c r="N53">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O53">
+        <v>8.4907310483163911E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -3388,8 +3514,11 @@
       <c r="N54">
         <v>-2.6</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O54">
+        <v>0.22901367790736421</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -3429,8 +3558,11 @@
       <c r="N55">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O55">
+        <v>0.11948708751799229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -3470,8 +3602,11 @@
       <c r="N56">
         <v>-3.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O56">
+        <v>9.9589386144458558E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -3511,8 +3646,11 @@
       <c r="N57">
         <v>-4.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O57">
+        <v>8.8124211920998619E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -3552,8 +3690,11 @@
       <c r="N58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O58">
+        <v>0.25699556478127411</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -3596,8 +3737,11 @@
       <c r="N59">
         <v>-5.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O59">
+        <v>0.24148918842378461</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -3640,8 +3784,11 @@
       <c r="N60">
         <v>-5</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O60">
+        <v>0.49797216935814598</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -3684,8 +3831,11 @@
       <c r="N61">
         <v>-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O61">
+        <v>7.7472754528809418E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -3728,8 +3878,11 @@
       <c r="N62">
         <v>-9.9</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O62">
+        <v>0.73540492854415973</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -3772,8 +3925,11 @@
       <c r="N63">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O63">
+        <v>-0.41706871577615351</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -3816,8 +3972,11 @@
       <c r="N64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O64">
+        <v>0.67500496750406214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -3860,8 +4019,11 @@
       <c r="N65">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O65">
+        <v>0.91038511417836432</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -3904,8 +4066,11 @@
       <c r="N66">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O66">
+        <v>0.7592050095189613</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -3948,8 +4113,11 @@
       <c r="N67">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O67">
+        <v>0.5174934191950058</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -3992,8 +4160,11 @@
       <c r="N68">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O68">
+        <v>0.57311530697491264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -4036,8 +4207,11 @@
       <c r="N69">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O69">
+        <v>0.36289075774638491</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -4080,8 +4254,11 @@
       <c r="N70">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O70">
+        <v>0.26068071567352652</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -4124,8 +4301,11 @@
       <c r="N71">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O71">
+        <v>0.1652605119188095</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -4168,8 +4348,11 @@
       <c r="N72">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O72">
+        <v>0.51358013070671404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -4212,8 +4395,11 @@
       <c r="N73">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O73">
+        <v>0.59280601373669839</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -4256,8 +4442,11 @@
       <c r="N74">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O74">
+        <v>0.30130372396661897</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -4300,8 +4489,11 @@
       <c r="N75">
         <v>-3.2</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O75">
+        <v>1.024333993961001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -4344,8 +4536,11 @@
       <c r="N76">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O76">
+        <v>0.14822868199804159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -4388,8 +4583,11 @@
       <c r="N77">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O77">
+        <v>-0.11909676407900351</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -4432,8 +4630,11 @@
       <c r="N78">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O78">
+        <v>0.29239267762226012</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -4476,8 +4677,11 @@
       <c r="N79">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O79">
+        <v>0.55171357903539331</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -4520,8 +4724,11 @@
       <c r="N80">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O80">
+        <v>0.37984259512637658</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -4564,8 +4771,11 @@
       <c r="N81">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O81">
+        <v>0.67837760588984963</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -4608,8 +4818,11 @@
       <c r="N82">
         <v>-0.9</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O82">
+        <v>0.90789716714814261</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
@@ -4652,8 +4865,11 @@
       <c r="N83">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O83">
+        <v>-0.25294826818579003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -4696,8 +4912,11 @@
       <c r="N84">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O84">
+        <v>0.2129589617042669</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -4740,8 +4959,11 @@
       <c r="N85">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O85">
+        <v>0.23875494096269281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -4784,8 +5006,11 @@
       <c r="N86">
         <v>-5.6</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O86">
+        <v>1.008001312456102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -4828,8 +5053,11 @@
       <c r="N87">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O87">
+        <v>0.3929650647926124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
@@ -4872,8 +5100,11 @@
       <c r="N88">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O88">
+        <v>0.59959708941681811</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -4916,8 +5147,11 @@
       <c r="N89">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O89">
+        <v>0.74682873012945805</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -4960,8 +5194,11 @@
       <c r="N90">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O90">
+        <v>0.47800471712337611</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -5004,8 +5241,11 @@
       <c r="N91">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O91">
+        <v>0.31134513173862638</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -5048,8 +5288,11 @@
       <c r="N92">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O92">
+        <v>0.51295159694676329</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -5092,8 +5335,11 @@
       <c r="N93">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O93">
+        <v>0.48152914787665679</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -5136,8 +5382,11 @@
       <c r="N94">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O94">
+        <v>-2.608067194223906E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -5180,8 +5429,11 @@
       <c r="N95">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O95">
+        <v>1.5469395671812549</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -5224,8 +5476,11 @@
       <c r="N96">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O96">
+        <v>0.59985402079570349</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -5268,8 +5523,11 @@
       <c r="N97">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O97">
+        <v>0.28316024337662782</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -5312,8 +5570,11 @@
       <c r="N98">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O98">
+        <v>-1.647697455808839E-5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -5356,8 +5617,11 @@
       <c r="N99">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O99">
+        <v>-8.2369149019854149E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -5400,8 +5664,11 @@
       <c r="N100">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O100">
+        <v>5.034875317868881E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -5444,8 +5711,11 @@
       <c r="N101">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O101">
+        <v>0.14071032117569621</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -5488,8 +5758,11 @@
       <c r="N102">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O102">
+        <v>0.2783285111881213</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -5532,8 +5805,11 @@
       <c r="N103">
         <v>-2.9</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O103">
+        <v>0.42875142264126959</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -5576,8 +5852,11 @@
       <c r="N104">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O104">
+        <v>0.80230522569092244</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
@@ -5620,8 +5899,11 @@
       <c r="N105">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O105">
+        <v>-0.24774627792159981</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
@@ -5664,8 +5946,11 @@
       <c r="N106">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O106">
+        <v>-0.64725447770023692</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
@@ -5708,8 +5993,11 @@
       <c r="N107">
         <v>-2.2000000000000002</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O107">
+        <v>-1.798918899432643</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
@@ -5752,8 +6040,11 @@
       <c r="N108">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O108">
+        <v>-1.2776533412284581</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -5796,8 +6087,11 @@
       <c r="N109">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O109">
+        <v>-0.40568138592306008</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -5840,8 +6134,11 @@
       <c r="N110">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O110">
+        <v>0.18866553249491599</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
@@ -5884,8 +6181,11 @@
       <c r="N111">
         <v>-8.5</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O111">
+        <v>0.73412809881893537</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -5928,8 +6228,11 @@
       <c r="N112">
         <v>-1.1000000000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O112">
+        <v>0.35476331795195648</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
@@ -5972,8 +6275,11 @@
       <c r="N113">
         <v>-2.6</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O113">
+        <v>0.2200650357187186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
@@ -6016,8 +6322,11 @@
       <c r="N114">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O114">
+        <v>0.36248208031911128</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
@@ -6060,8 +6369,11 @@
       <c r="N115">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O115">
+        <v>1.071185997482758</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
@@ -6104,8 +6416,11 @@
       <c r="N116">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O116">
+        <v>1.3915635473022969</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
@@ -6148,8 +6463,11 @@
       <c r="N117">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O117">
+        <v>0.74515396728517658</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -6192,8 +6510,11 @@
       <c r="N118">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O118">
+        <v>0.8301473482381283</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -6236,8 +6557,11 @@
       <c r="N119">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O119">
+        <v>-0.68693718299834927</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
@@ -6280,8 +6604,11 @@
       <c r="N120">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O120">
+        <v>0.31997158687264721</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
@@ -6324,8 +6651,11 @@
       <c r="N121">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O121">
+        <v>1.1154197114883291</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
@@ -6368,8 +6698,11 @@
       <c r="N122">
         <v>-4.9000000000000004</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O122">
+        <v>0.96929478264227242</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
@@ -6412,8 +6745,11 @@
       <c r="N123">
         <v>11</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O123">
+        <v>-1.8009740253624781E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -6456,8 +6792,11 @@
       <c r="N124">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O124">
+        <v>0.57732412273112743</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
@@ -6500,8 +6839,11 @@
       <c r="N125">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O125">
+        <v>0.83440873257217163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
@@ -6544,8 +6886,11 @@
       <c r="N126">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O126">
+        <v>0.78221655230865395</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -6588,8 +6933,11 @@
       <c r="N127">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O127">
+        <v>0.49570219245755709</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
@@ -6632,8 +6980,11 @@
       <c r="N128">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O128">
+        <v>0.36286397094083611</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
@@ -6676,8 +7027,11 @@
       <c r="N129">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O129">
+        <v>0.44611538636603137</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
@@ -6720,8 +7074,11 @@
       <c r="N130">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O130">
+        <v>-0.15444362277833079</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
@@ -6764,8 +7121,11 @@
       <c r="N131">
         <v>-3.2</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O131">
+        <v>0.69793265550061534</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
@@ -6808,8 +7168,11 @@
       <c r="N132">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O132">
+        <v>0.49712135283835579</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
@@ -6852,8 +7215,11 @@
       <c r="N133">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O133">
+        <v>0.37473118701206692</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
@@ -6896,8 +7262,11 @@
       <c r="N134">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O134">
+        <v>0.34667176390591692</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -6940,8 +7309,11 @@
       <c r="N135">
         <v>-5.5</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O135">
+        <v>8.6762740122303228E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -6984,8 +7356,11 @@
       <c r="N136">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O136">
+        <v>0.239875501175149</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
@@ -7028,8 +7403,11 @@
       <c r="N137">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O137">
+        <v>0.1011676620462794</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -7072,8 +7450,11 @@
       <c r="N138">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O138">
+        <v>0.21895871708670711</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
@@ -7116,8 +7497,11 @@
       <c r="N139">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O139">
+        <v>0.19206583721515361</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
@@ -7160,8 +7544,11 @@
       <c r="N140">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O140">
+        <v>0.1000008703856423</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
@@ -7204,8 +7591,11 @@
       <c r="N141">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O141">
+        <v>0.16892801776624819</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
@@ -7248,8 +7638,11 @@
       <c r="N142">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O142">
+        <v>0.25905096179354808</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
@@ -7292,8 +7685,11 @@
       <c r="N143">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O143">
+        <v>8.8543056968276801E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
@@ -7336,8 +7732,11 @@
       <c r="N144">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O144">
+        <v>0.1681406339777283</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
@@ -7380,8 +7779,11 @@
       <c r="N145">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O145">
+        <v>0.21105961978639701</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
@@ -7424,8 +7826,11 @@
       <c r="N146">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O146">
+        <v>1.6484710572584049E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
@@ -7468,8 +7873,11 @@
       <c r="N147">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O147">
+        <v>0.9774708753541006</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -7512,8 +7920,11 @@
       <c r="N148">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O148">
+        <v>0.1053442440235131</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -7556,8 +7967,11 @@
       <c r="N149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O149">
+        <v>-7.6717137453385931E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -7600,8 +8014,11 @@
       <c r="N150">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O150">
+        <v>0.2359845641247347</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
@@ -7644,8 +8061,11 @@
       <c r="N151">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O151">
+        <v>0.16288664958543109</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
@@ -7688,8 +8108,11 @@
       <c r="N152">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O152">
+        <v>0.18985936344804341</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
@@ -7732,8 +8155,11 @@
       <c r="N153">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O153">
+        <v>0.10311113286500979</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
@@ -7776,8 +8202,11 @@
       <c r="N154">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O154">
+        <v>0.16244178063022471</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
@@ -7820,8 +8249,11 @@
       <c r="N155">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O155">
+        <v>8.6733827615795178E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
@@ -7864,8 +8296,11 @@
       <c r="N156">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O156">
+        <v>0.32224728924506962</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
@@ -7908,8 +8343,11 @@
       <c r="N157">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O157">
+        <v>0.1673092445370159</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
@@ -7952,8 +8390,11 @@
       <c r="N158">
         <v>-6.8</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O158">
+        <v>0.69007983756736735</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
@@ -7996,8 +8437,11 @@
       <c r="N159">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O159">
+        <v>-0.17038999675004621</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
@@ -8040,8 +8484,11 @@
       <c r="N160">
         <v>-0.6</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O160">
+        <v>0.31367470247890589</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
@@ -8084,8 +8531,11 @@
       <c r="N161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O161">
+        <v>0.68283555963875386</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
@@ -8128,8 +8578,11 @@
       <c r="N162">
         <v>-0.9</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O162">
+        <v>0.42743884733165771</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
@@ -8172,8 +8625,11 @@
       <c r="N163">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O163">
+        <v>0.23965621821266581</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
@@ -8216,8 +8672,11 @@
       <c r="N164">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O164">
+        <v>0.31297175662407989</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
@@ -8260,8 +8719,11 @@
       <c r="N165">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O165">
+        <v>0.42343217224539842</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
@@ -8304,8 +8766,11 @@
       <c r="N166">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O166">
+        <v>7.4691018799697417E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
@@ -8348,8 +8813,11 @@
       <c r="N167">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O167">
+        <v>0.45949904251843071</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
@@ -8392,8 +8860,11 @@
       <c r="N168">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O168">
+        <v>0.22262086559001659</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
@@ -8436,8 +8907,11 @@
       <c r="N169">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O169">
+        <v>0.43789076525931853</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
@@ -8480,8 +8954,11 @@
       <c r="N170">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O170">
+        <v>3.9343201118612108E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
@@ -8524,8 +9001,11 @@
       <c r="N171">
         <v>-4.8</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O171">
+        <v>0.52077246636555685</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
@@ -8568,8 +9048,11 @@
       <c r="N172">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O172">
+        <v>0.44202306780440642</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
@@ -8612,8 +9095,11 @@
       <c r="N173">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O173">
+        <v>0.39313741778561712</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
@@ -8656,8 +9142,11 @@
       <c r="N174">
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O174">
+        <v>1.5721263914016959E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
@@ -8700,8 +9189,11 @@
       <c r="N175">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O175">
+        <v>8.4326616840726842E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
@@ -8744,8 +9236,11 @@
       <c r="N176">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O176">
+        <v>0.20263042699144759</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
@@ -8788,8 +9283,11 @@
       <c r="N177">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O177">
+        <v>-9.6222290632667296E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
@@ -8832,8 +9330,11 @@
       <c r="N178">
         <v>-2.8</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O178">
+        <v>0.30017880269552683</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
@@ -8876,8 +9377,11 @@
       <c r="N179">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O179">
+        <v>0.1177920579647207</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
@@ -8920,8 +9424,11 @@
       <c r="N180">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O180">
+        <v>0.11109274789042441</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
@@ -8964,8 +9471,11 @@
       <c r="N181">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O181">
+        <v>0.42030301556660282</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
@@ -9008,8 +9518,11 @@
       <c r="N182">
         <v>-8</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O182">
+        <v>0.43521354257414657</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
@@ -9052,8 +9565,11 @@
       <c r="N183">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O183">
+        <v>-2.141825179948853E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
@@ -9096,8 +9612,11 @@
       <c r="N184">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O184">
+        <v>0.1854970968528917</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
@@ -9140,8 +9659,11 @@
       <c r="N185">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O185">
+        <v>5.3928080681295398E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
@@ -9184,8 +9706,11 @@
       <c r="N186">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O186">
+        <v>0.1811314709474203</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
@@ -9228,8 +9753,11 @@
       <c r="N187">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O187">
+        <v>0.62637687415497112</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
@@ -9272,8 +9800,11 @@
       <c r="N188">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O188">
+        <v>0.49610381209082988</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
@@ -9316,8 +9847,11 @@
       <c r="N189">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O189">
+        <v>0.53382224169386916</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
@@ -9360,8 +9894,11 @@
       <c r="N190">
         <v>10</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O190">
+        <v>0.51015886108241659</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
@@ -9404,8 +9941,11 @@
       <c r="N191">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O191">
+        <v>0.14155102412708939</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
@@ -9448,8 +9988,11 @@
       <c r="N192">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O192">
+        <v>0.10240458233820959</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
@@ -9492,8 +10035,11 @@
       <c r="N193">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O193">
+        <v>-8.3602200916374159E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
@@ -9536,8 +10082,11 @@
       <c r="N194">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O194">
+        <v>-2.8566894091056842E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
@@ -9580,8 +10129,11 @@
       <c r="N195">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O195">
+        <v>0.29867926804527661</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
@@ -9624,8 +10176,11 @@
       <c r="N196">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O196">
+        <v>0.45314196567714049</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
@@ -9668,8 +10223,11 @@
       <c r="N197">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O197">
+        <v>0.31696121900892388</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
@@ -9712,8 +10270,11 @@
       <c r="N198">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O198">
+        <v>0.60394378744872768</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
@@ -9756,8 +10317,11 @@
       <c r="N199">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O199">
+        <v>0.23626556867623091</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
@@ -9800,8 +10364,11 @@
       <c r="N200">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O200">
+        <v>-5.2701373755539287E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
@@ -9844,8 +10411,11 @@
       <c r="N201">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O201">
+        <v>0.16402976977074249</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
@@ -9888,8 +10458,11 @@
       <c r="N202">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O202">
+        <v>-4.643034307606797E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
@@ -9932,8 +10505,11 @@
       <c r="N203">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O203">
+        <v>9.645997466974876E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
@@ -9976,8 +10552,11 @@
       <c r="N204">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O204">
+        <v>0.50168308900255454</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
@@ -10020,8 +10599,11 @@
       <c r="N205">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O205">
+        <v>0.43608481436700691</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
@@ -10064,8 +10646,11 @@
       <c r="N206">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O206">
+        <v>8.9142158870359367E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
@@ -10108,8 +10693,11 @@
       <c r="N207">
         <v>-3.6</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O207">
+        <v>0.5532175240635695</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
@@ -10152,8 +10740,11 @@
       <c r="N208">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O208">
+        <v>0.25228575752521459</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
@@ -10196,8 +10787,11 @@
       <c r="N209">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O209">
+        <v>0.18298623910568779</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
@@ -10240,8 +10834,11 @@
       <c r="N210">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O210">
+        <v>0.23007939439824551</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
@@ -10284,8 +10881,11 @@
       <c r="N211">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O211">
+        <v>0.33309345477246671</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
@@ -10328,8 +10928,11 @@
       <c r="N212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O212">
+        <v>0.64893609231577898</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
@@ -10372,8 +10975,11 @@
       <c r="N213">
         <v>-1.1000000000000001</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O213">
+        <v>0.39065228753818809</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
@@ -10416,8 +11022,11 @@
       <c r="N214">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O214">
+        <v>0.57562084403312497</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
@@ -10460,8 +11069,11 @@
       <c r="N215">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O215">
+        <v>-0.80160726726006715</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
@@ -10504,8 +11116,11 @@
       <c r="N216">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O216">
+        <v>-5.8693252274849783E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
@@ -10548,8 +11163,11 @@
       <c r="N217">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O217">
+        <v>8.031433072547145E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
@@ -10592,8 +11210,11 @@
       <c r="N218">
         <v>-2.4</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O218">
+        <v>1.1103273885401419</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
@@ -10636,8 +11257,11 @@
       <c r="N219">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O219">
+        <v>0.15022605728208299</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
@@ -10680,8 +11304,11 @@
       <c r="N220">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O220">
+        <v>0.16663031063929171</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
@@ -10724,8 +11351,11 @@
       <c r="N221">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O221">
+        <v>0.27959468346487881</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
@@ -10768,8 +11398,11 @@
       <c r="N222">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O222">
+        <v>0.27493993273910178</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
@@ -10812,8 +11445,11 @@
       <c r="N223">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O223">
+        <v>0.22784940556651631</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
@@ -10856,8 +11492,11 @@
       <c r="N224">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O224">
+        <v>0.3004928635968156</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
@@ -10900,8 +11539,11 @@
       <c r="N225">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O225">
+        <v>0.3219860530940224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
@@ -10944,8 +11586,11 @@
       <c r="N226">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O226">
+        <v>-0.47608944085067151</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
@@ -10988,8 +11633,11 @@
       <c r="N227">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O227">
+        <v>0.83652571112078533</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
@@ -11032,8 +11680,11 @@
       <c r="N228">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O228">
+        <v>-3.6604990695025208E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
@@ -11076,8 +11727,11 @@
       <c r="N229">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O229">
+        <v>-6.1743233649877993E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -11120,8 +11774,11 @@
       <c r="N230">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O230">
+        <v>-8.8393304682583107E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
@@ -11164,8 +11821,11 @@
       <c r="N231">
         <v>-3.5</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O231">
+        <v>-0.11298381706116339</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
@@ -11208,8 +11868,11 @@
       <c r="N232">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O232">
+        <v>0.24010118559510829</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
@@ -11252,8 +11915,11 @@
       <c r="N233">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O233">
+        <v>0.66510144955196893</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
@@ -11296,8 +11962,11 @@
       <c r="N234">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O234">
+        <v>0.4638763881656871</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
@@ -11340,8 +12009,11 @@
       <c r="N235">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O235">
+        <v>9.7243208836204076E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
@@ -11384,8 +12056,11 @@
       <c r="N236">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O236">
+        <v>5.9900825846085581E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
@@ -11428,8 +12103,11 @@
       <c r="N237">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O237">
+        <v>-2.1313654534083071E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
@@ -11472,8 +12150,11 @@
       <c r="N238">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O238">
+        <v>0.54123522343567743</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
@@ -11516,8 +12197,11 @@
       <c r="N239">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O239">
+        <v>0.59424240973066844</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
@@ -11560,8 +12244,11 @@
       <c r="N240">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O240">
+        <v>0.2785363739293274</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
@@ -11604,8 +12291,11 @@
       <c r="N241">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O241">
+        <v>0.17986094153137339</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
@@ -11648,8 +12338,11 @@
       <c r="N242">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O242">
+        <v>-1.0695957520989769</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
@@ -11692,8 +12385,11 @@
       <c r="N243">
         <v>3</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O243">
+        <v>-0.28062586051670729</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
@@ -11736,8 +12432,11 @@
       <c r="N244">
         <v>-3.4</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O244">
+        <v>-0.76821927966170733</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
@@ -11780,8 +12479,11 @@
       <c r="N245">
         <v>-2.2000000000000002</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O245">
+        <v>-1.818812412370846</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
@@ -11824,8 +12526,11 @@
       <c r="N246">
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O246">
+        <v>-1.138721240705308</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
@@ -11868,8 +12573,11 @@
       <c r="N247">
         <v>-1</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O247">
+        <v>0.5509441383632776</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
@@ -11912,8 +12620,11 @@
       <c r="N248">
         <v>-1.7</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O248">
+        <v>1.3412547498539451</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
@@ -11956,8 +12667,11 @@
       <c r="N249">
         <v>-2.4</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O249">
+        <v>0.86528808281286729</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
@@ -12000,8 +12714,11 @@
       <c r="N250">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O250">
+        <v>1.1824925487911739</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
@@ -12044,8 +12761,11 @@
       <c r="N251">
         <v>-4.8</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O251">
+        <v>-0.1059823815111116</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
@@ -12088,8 +12808,11 @@
       <c r="N252">
         <v>-4.4000000000000004</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O252">
+        <v>0.2398317647503774</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
@@ -12132,8 +12855,11 @@
       <c r="N253">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O253">
+        <v>0.50801043463734175</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
@@ -12176,8 +12902,11 @@
       <c r="N254">
         <v>-6.1</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O254">
+        <v>1.078606206150269</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
@@ -12220,8 +12949,11 @@
       <c r="N255">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O255">
+        <v>0.34326613468969919</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
@@ -12264,8 +12996,11 @@
       <c r="N256">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O256">
+        <v>0.22179647814475351</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
@@ -12308,8 +13043,11 @@
       <c r="N257">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O257">
+        <v>0.35313308443450347</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
@@ -12352,8 +13090,11 @@
       <c r="N258">
         <v>3</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O258">
+        <v>0.3900546333622259</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
@@ -12396,8 +13137,11 @@
       <c r="N259">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O259">
+        <v>7.3632388992834308E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
@@ -12440,8 +13184,11 @@
       <c r="N260">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O260">
+        <v>-0.2373651554879217</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
@@ -12484,8 +13231,11 @@
       <c r="N261">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O261">
+        <v>0.29012540743673298</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
@@ -12528,8 +13278,11 @@
       <c r="N262">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O262">
+        <v>-0.1054747597576124</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
@@ -12572,8 +13325,11 @@
       <c r="N263">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O263">
+        <v>0.8014609125398664</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
@@ -12616,8 +13372,11 @@
       <c r="N264">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O264">
+        <v>0.61880338044250038</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
@@ -12660,8 +13419,11 @@
       <c r="N265">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O265">
+        <v>0.47883461357389479</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
@@ -12704,8 +13466,11 @@
       <c r="N266">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O266">
+        <v>2.7837376017032511E-3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
@@ -12748,8 +13513,11 @@
       <c r="N267">
         <v>-4.7</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O267">
+        <v>0.17917302305068011</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
@@ -12792,8 +13560,11 @@
       <c r="N268">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O268">
+        <v>0.15683013350326289</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
@@ -12836,8 +13607,11 @@
       <c r="N269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O269">
+        <v>0.27559646933052312</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
@@ -12880,8 +13654,11 @@
       <c r="N270">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O270">
+        <v>0.49459501351999791</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
@@ -12924,8 +13701,11 @@
       <c r="N271">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O271">
+        <v>9.1187274911206373E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
@@ -12968,8 +13748,11 @@
       <c r="N272">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O272">
+        <v>5.6227140636764261E-3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
@@ -13012,8 +13795,11 @@
       <c r="N273">
         <v>3</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O273">
+        <v>-1.7066548077650619E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
@@ -13056,8 +13842,11 @@
       <c r="N274">
         <v>-5.2</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O274">
+        <v>-5.9704609378144369E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
@@ -13100,8 +13889,11 @@
       <c r="N275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O275">
+        <v>-0.1981103723711897</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
@@ -13144,8 +13936,11 @@
       <c r="N276">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O276">
+        <v>-5.135974954001199E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
@@ -13188,8 +13983,11 @@
       <c r="N277">
         <v>-3.1</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O277">
+        <v>-6.6473616972416494E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
@@ -13232,8 +14030,11 @@
       <c r="N278">
         <v>-1.3</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O278">
+        <v>4.4842448726384987E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
@@ -13276,8 +14077,11 @@
       <c r="N279">
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O279">
+        <v>0.32770033980808932</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
@@ -13320,8 +14124,11 @@
       <c r="N280">
         <v>-2.2999999999999998</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O280">
+        <v>0.29437895768950278</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
@@ -13364,8 +14171,11 @@
       <c r="N281">
         <v>-1.1000000000000001</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O281">
+        <v>0.1116024082065792</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
@@ -13408,8 +14218,11 @@
       <c r="N282">
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O282">
+        <v>0.16215470136000931</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
@@ -13452,8 +14265,11 @@
       <c r="N283">
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O283">
+        <v>0.22442511747313179</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
@@ -13496,8 +14312,11 @@
       <c r="N284">
         <v>-1.9</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O284">
+        <v>1.493959317259907E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
@@ -13537,8 +14356,11 @@
       <c r="N285">
         <v>-5.6</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O285">
+        <v>0.35697654619661989</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
@@ -13578,8 +14400,11 @@
       <c r="N286">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O286">
+        <v>0.43022319178265889</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>299</v>
       </c>
